--- a/biology/Médecine/Os_interpariétal/Os_interpariétal.xlsx
+++ b/biology/Médecine/Os_interpariétal/Os_interpariétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Os_interpari%C3%A9tal</t>
+          <t>Os_interpariétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os interpariétal (ou os de l'Inca, ou os épactal ou os sus-occipital) est un faux os wormien, résultant d'une fusion interpariétale incomplète de l'écaille de l'os occipital. Il peut adopter une forme triangulaire, rectangulaire, losangique, en M, être bi ou tripartite. Il peut également être lié à certaines situations pathologiques.
 Il a été très tôt remarqué sur les momies Incas. Le trait, plus ou moins marqué, représente plus du quart des crânes dans les fouilles péruviennes. 
